--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Bmpr1b</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H2">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I2">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J2">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30157483041766</v>
+        <v>1.467406</v>
       </c>
       <c r="N2">
-        <v>1.30157483041766</v>
+        <v>4.402218</v>
       </c>
       <c r="O2">
-        <v>0.8212598866281821</v>
+        <v>0.8178057326420413</v>
       </c>
       <c r="P2">
-        <v>0.8212598866281821</v>
+        <v>0.8654277364307374</v>
       </c>
       <c r="Q2">
-        <v>24.38309301439688</v>
+        <v>33.840918037568</v>
       </c>
       <c r="R2">
-        <v>24.38309301439688</v>
+        <v>304.5682623381119</v>
       </c>
       <c r="S2">
-        <v>0.5602267332477906</v>
+        <v>0.5013266992012027</v>
       </c>
       <c r="T2">
-        <v>0.5602267332477906</v>
+        <v>0.5973848264074955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.733531445574</v>
+        <v>23.061728</v>
       </c>
       <c r="H3">
-        <v>18.733531445574</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I3">
-        <v>0.6821552377870225</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J3">
-        <v>0.6821552377870225</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.283276507885846</v>
+        <v>0.030706</v>
       </c>
       <c r="N3">
-        <v>0.283276507885846</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O3">
-        <v>0.1787401133718179</v>
+        <v>0.01711288002536893</v>
       </c>
       <c r="P3">
-        <v>0.1787401133718179</v>
+        <v>0.01810938763698815</v>
       </c>
       <c r="Q3">
-        <v>5.306769368271887</v>
+        <v>0.7081334199679999</v>
       </c>
       <c r="R3">
-        <v>5.306769368271887</v>
+        <v>6.373200779712</v>
       </c>
       <c r="S3">
-        <v>0.1219285045392318</v>
+        <v>0.01049044206284568</v>
       </c>
       <c r="T3">
-        <v>0.1219285045392318</v>
+        <v>0.01250049303305872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7275626681526</v>
+        <v>23.061728</v>
       </c>
       <c r="H4">
-        <v>1.7275626681526</v>
+        <v>69.18518399999999</v>
       </c>
       <c r="I4">
-        <v>0.06290676833192843</v>
+        <v>0.6130144106248721</v>
       </c>
       <c r="J4">
-        <v>0.06290676833192843</v>
+        <v>0.6902769593117909</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.30157483041766</v>
+        <v>0.296209</v>
       </c>
       <c r="N4">
-        <v>1.30157483041766</v>
+        <v>0.592418</v>
       </c>
       <c r="O4">
-        <v>0.8212598866281821</v>
+        <v>0.1650813873325899</v>
       </c>
       <c r="P4">
-        <v>0.8212598866281821</v>
+        <v>0.1164628759322743</v>
       </c>
       <c r="Q4">
-        <v>2.248552086836601</v>
+        <v>6.831091389151999</v>
       </c>
       <c r="R4">
-        <v>2.248552086836601</v>
+        <v>40.98654833491199</v>
       </c>
       <c r="S4">
-        <v>0.05166280542842486</v>
+        <v>0.1011972693608238</v>
       </c>
       <c r="T4">
-        <v>0.05166280542842486</v>
+        <v>0.08039163987123665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +714,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7275626681526</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H5">
-        <v>1.7275626681526</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I5">
-        <v>0.06290676833192843</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J5">
-        <v>0.06290676833192843</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.283276507885846</v>
+        <v>1.467406</v>
       </c>
       <c r="N5">
-        <v>0.283276507885846</v>
+        <v>4.402218</v>
       </c>
       <c r="O5">
-        <v>0.1787401133718179</v>
+        <v>0.8178057326420413</v>
       </c>
       <c r="P5">
-        <v>0.1787401133718179</v>
+        <v>0.8654277364307374</v>
       </c>
       <c r="Q5">
-        <v>0.4893779197882231</v>
+        <v>2.826243521413333</v>
       </c>
       <c r="R5">
-        <v>0.4893779197882231</v>
+        <v>25.43619169272</v>
       </c>
       <c r="S5">
-        <v>0.01124396290350357</v>
+        <v>0.04186858447977123</v>
       </c>
       <c r="T5">
-        <v>0.01124396290350357</v>
+        <v>0.04989093361919173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.00117606739432</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H6">
-        <v>7.00117606739432</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I6">
-        <v>0.254937993881049</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J6">
-        <v>0.254937993881049</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.30157483041766</v>
+        <v>0.030706</v>
       </c>
       <c r="N6">
-        <v>1.30157483041766</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O6">
-        <v>0.8212598866281821</v>
+        <v>0.01711288002536893</v>
       </c>
       <c r="P6">
-        <v>0.8212598866281821</v>
+        <v>0.01810938763698815</v>
       </c>
       <c r="Q6">
-        <v>9.112554552642942</v>
+        <v>0.05914016541333334</v>
       </c>
       <c r="R6">
-        <v>9.112554552642942</v>
+        <v>0.5322614887200001</v>
       </c>
       <c r="S6">
-        <v>0.2093703479519665</v>
+        <v>0.0008761152367073978</v>
       </c>
       <c r="T6">
-        <v>0.2093703479519665</v>
+        <v>0.001043985786967548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +841,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.00117606739432</v>
+        <v>1.926013333333334</v>
       </c>
       <c r="H7">
-        <v>7.00117606739432</v>
+        <v>5.778040000000001</v>
       </c>
       <c r="I7">
-        <v>0.254937993881049</v>
+        <v>0.05119624723650278</v>
       </c>
       <c r="J7">
-        <v>0.254937993881049</v>
+        <v>0.05764887294340218</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.283276507885846</v>
+        <v>0.296209</v>
       </c>
       <c r="N7">
-        <v>0.283276507885846</v>
+        <v>0.592418</v>
       </c>
       <c r="O7">
-        <v>0.1787401133718179</v>
+        <v>0.1650813873325899</v>
       </c>
       <c r="P7">
-        <v>0.1787401133718179</v>
+        <v>0.1164628759322743</v>
       </c>
       <c r="Q7">
-        <v>1.983268707465424</v>
+        <v>0.5705024834533334</v>
       </c>
       <c r="R7">
-        <v>1.983268707465424</v>
+        <v>3.423014900720001</v>
       </c>
       <c r="S7">
-        <v>0.04556764592908253</v>
+        <v>0.008451547520024151</v>
       </c>
       <c r="T7">
-        <v>0.04556764592908253</v>
+        <v>0.006713953537242892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12.632464</v>
+      </c>
+      <c r="H8">
+        <v>25.264928</v>
+      </c>
+      <c r="I8">
+        <v>0.3357893421386252</v>
+      </c>
+      <c r="J8">
+        <v>0.2520741677448068</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.467406</v>
+      </c>
+      <c r="N8">
+        <v>4.402218</v>
+      </c>
+      <c r="O8">
+        <v>0.8178057326420413</v>
+      </c>
+      <c r="P8">
+        <v>0.8654277364307374</v>
+      </c>
+      <c r="Q8">
+        <v>18.536953468384</v>
+      </c>
+      <c r="R8">
+        <v>111.221720810304</v>
+      </c>
+      <c r="S8">
+        <v>0.2746104489610675</v>
+      </c>
+      <c r="T8">
+        <v>0.2181519764040502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>12.632464</v>
+      </c>
+      <c r="H9">
+        <v>25.264928</v>
+      </c>
+      <c r="I9">
+        <v>0.3357893421386252</v>
+      </c>
+      <c r="J9">
+        <v>0.2520741677448068</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.030706</v>
+      </c>
+      <c r="N9">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.01711288002536893</v>
+      </c>
+      <c r="P9">
+        <v>0.01810938763698815</v>
+      </c>
+      <c r="Q9">
+        <v>0.387892439584</v>
+      </c>
+      <c r="R9">
+        <v>2.327354637504</v>
+      </c>
+      <c r="S9">
+        <v>0.005746322725815854</v>
+      </c>
+      <c r="T9">
+        <v>0.004564908816961881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.632464</v>
+      </c>
+      <c r="H10">
+        <v>25.264928</v>
+      </c>
+      <c r="I10">
+        <v>0.3357893421386252</v>
+      </c>
+      <c r="J10">
+        <v>0.2520741677448068</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.296209</v>
+      </c>
+      <c r="N10">
+        <v>0.592418</v>
+      </c>
+      <c r="O10">
+        <v>0.1650813873325899</v>
+      </c>
+      <c r="P10">
+        <v>0.1164628759322743</v>
+      </c>
+      <c r="Q10">
+        <v>3.741849528976</v>
+      </c>
+      <c r="R10">
+        <v>14.967398115904</v>
+      </c>
+      <c r="S10">
+        <v>0.05543257045174195</v>
+      </c>
+      <c r="T10">
+        <v>0.02935728252379474</v>
       </c>
     </row>
   </sheetData>
